--- a/biology/Botanique/Cyperus_rheophyticus/Cyperus_rheophyticus.xlsx
+++ b/biology/Botanique/Cyperus_rheophyticus/Cyperus_rheophyticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyperus rheophyticus Lye est une espèce de plantes de la famille des Cyperaceae et du genre Cyperus, endémique du Cameroun. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pérenne pouvant atteindre 50 cm de hauteur[2].
-Le rhizome de cette espèce est plus gros que celui de Cyperus brevifolius ssp. brevifolius, de même que l'anthère et l'akène[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pérenne pouvant atteindre 50 cm de hauteur.
+Le rhizome de cette espèce est plus gros que celui de Cyperus brevifolius ssp. brevifolius, de même que l'anthère et l'akène.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, cependant assez commune, elle a été observée sur plsueiurs sites dans la Région du Sud-Ouest[2].
-L'espèce se trouve dans les habitats submergés de façon saisonnière, dans les cours d'eau forestiers et les rivières du sud-ouest du Cameroun à 500-1 350 m d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, cependant assez commune, elle a été observée sur plsueiurs sites dans la Région du Sud-Ouest.
+L'espèce se trouve dans les habitats submergés de façon saisonnière, dans les cours d'eau forestiers et les rivières du sud-ouest du Cameroun à 500-1 350 m d'altitude.
 </t>
         </is>
       </c>
